--- a/medicine/Mort/Cimetière_militaire_Rifle_House/Cimetière_militaire_Rifle_House.xlsx
+++ b/medicine/Mort/Cimetière_militaire_Rifle_House/Cimetière_militaire_Rifle_House.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_militaire_Rifle_House</t>
+          <t>Cimetière_militaire_Rifle_House</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le cimetière militaire Rifle House ou Rifle House Cemetery[1] est un cimetière militaire britannique de soldats de la Première Guerre mondiale, situé dans la commune belge de Comines-Warneton. Le cimetière est situé au milieu du bois de Ploegsteert, à environ 1,7 km au nord - est du centre du village de Ploegsteert. Elle a été conçue par William Cowlishaw et est entretenue par la Commonwealth War Graves Commission. Ce cimetière n'est accessible qu'à pied par un chemin forestion d'environ 1km. En chemin, on passe devant quatre autres cimetières militaires, à savoir : le cimetière militaire de Prowse Point, le cimetière militaire Mud Corner, le cimetière militaire de Toronto Avenue et le cimetière militaire du bois de Ploegsteert.
+Le cimetière militaire Rifle House ou Rifle House Cemetery est un cimetière militaire britannique de soldats de la Première Guerre mondiale, situé dans la commune belge de Comines-Warneton. Le cimetière est situé au milieu du bois de Ploegsteert, à environ 1,7 km au nord - est du centre du village de Ploegsteert. Elle a été conçue par William Cowlishaw et est entretenue par la Commonwealth War Graves Commission. Ce cimetière n'est accessible qu'à pied par un chemin forestion d'environ 1km. En chemin, on passe devant quatre autres cimetières militaires, à savoir : le cimetière militaire de Prowse Point, le cimetière militaire Mud Corner, le cimetière militaire de Toronto Avenue et le cimetière militaire du bois de Ploegsteert.
 Il y a 230 victimes enterrées, dont 1 non identifiée.
 </t>
         </is>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_militaire_Rifle_House</t>
+          <t>Cimetière_militaire_Rifle_House</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom de ce cimetière vient d'une fortification dont on ne retrouve plus de vestiges aujourd'hui. La 1st Rifle Brigade a commencé à y enterrer ses premiers morts en novembre 1914 et cela s'est poursuivi jusqu'en juin 1916. Le cimetière était un cimetière de première ligne, ce qui signifie que les tombes sont dans une position désordonnée. Lors de l'offensive allemande du printemps, le cimetière est aux mains de l'ennemi du 10 avril 1918 au 29 septembre de la même année.
 Il y a 228 Britanniques et 1 Canadien enterrés. Il y a aussi 1 tombe non identifiée.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_militaire_Rifle_House</t>
+          <t>Cimetière_militaire_Rifle_House</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,13 +561,86 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Militaire distingué
-Frank Coram Spain, caporal dans la Rifle Brigade a reçu la Distinguished Conduct Medal (DCM).
-Personnel militaire mineur
-Le carabinier Robert Barnett du 1er Bn. La Rifle Brigade a été tuée en attaquant la fortification Bird Cage le 15 décembre 1914. Il avait 15 ans, faisant de lui la plus jeune victime de ce cimetière.
-John Machin, soldat du Norfolk Regiment avait 17 ans lorsqu'il fut tué au combat le 19 septembre 1915.
-Alias
-le soldat J. Wallace a servi avec les Royal Scots sous le pseudonyme de J. Ross.</t>
+          <t>Militaire distingué</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Frank Coram Spain, caporal dans la Rifle Brigade a reçu la Distinguished Conduct Medal (DCM).</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Cimetière_militaire_Rifle_House</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_militaire_Rifle_House</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Tombes</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Personnel militaire mineur</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Le carabinier Robert Barnett du 1er Bn. La Rifle Brigade a été tuée en attaquant la fortification Bird Cage le 15 décembre 1914. Il avait 15 ans, faisant de lui la plus jeune victime de ce cimetière.
+John Machin, soldat du Norfolk Regiment avait 17 ans lorsqu'il fut tué au combat le 19 septembre 1915.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Cimetière_militaire_Rifle_House</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_militaire_Rifle_House</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Tombes</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>le soldat J. Wallace a servi avec les Royal Scots sous le pseudonyme de J. Ross.</t>
         </is>
       </c>
     </row>
